--- a/cropped_and_labeled_image_data/2013_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2013_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,6 +480,894 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bresman_2013_AMJ_Changing Routines a Process Model of Vicarious Group Learning in Pharmaceutical R&amp;D.pdf</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>F1_P5_Bresman_2013_AMJ_Changing Routines a Process Model of Vicarious Group Learning in Pharmaceutical R&amp;D.png</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P5_Bresman_2013_AMJ_Changing Routines a Process Model of Vicarious Group Learning in Pharmaceutical R&amp;D.png</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Bresman_2013_AMJ_Changing Routines a Process Model of Vicarious Group Learning in Pharmaceutical R&amp;D.pdf</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>F2_P8_Bresman_2013_AMJ_Changing Routines a Process Model of Vicarious Group Learning in Pharmaceutical R&amp;D.png</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P8_Bresman_2013_AMJ_Changing Routines a Process Model of Vicarious Group Learning in Pharmaceutical R&amp;D.png</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Detert et al._2013_ASQ_Voice Flows to and around Leaders.pdf</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>F1_P14_Detert et al._2013_ASQ_Voice Flows to and around Leaders.png</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P14_Detert et al._2013_ASQ_Voice Flows to and around Leaders.png</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Detert et al._2013_ASQ_Voice Flows to and around Leaders.pdf</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>F2_P28_Detert et al._2013_ASQ_Voice Flows to and around Leaders.png</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E5" t="n">
+        <v>29</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P28_Detert et al._2013_ASQ_Voice Flows to and around Leaders.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dorado_2013_OrgStudies_Small Groups as Context for Institutional Entrepreneurship.pdf</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>F1_P6_Dorado_2013_OrgStudies_Small Groups as Context for Institutional Entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P6_Dorado_2013_OrgStudies_Small Groups as Context for Institutional Entrepreneurship.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>timeline</t>
+        </is>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Elsbach_2013_J Management Studies _ Creative Collaboration and the Self‐Concept  A Study of Toy Designers.pdf</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>F1_P14_Elsbach_2013_J Management Studies _ Creative Collaboration and the Self‐Concept  A Study of Toy Designers.png</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E7" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P14_Elsbach_2013_J Management Studies _ Creative Collaboration and the Self‐Concept  A Study of Toy Designers.png</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>venn diagram</t>
+        </is>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Elsbach_2013_J Management Studies _ Creative Collaboration and the Self‐Concept  A Study of Toy Designers.pdf</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>F2_P15_Elsbach_2013_J Management Studies _ Creative Collaboration and the Self‐Concept  A Study of Toy Designers.png</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E8" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P15_Elsbach_2013_J Management Studies _ Creative Collaboration and the Self‐Concept  A Study of Toy Designers.png</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>venn diagram</t>
+        </is>
+      </c>
+      <c r="I8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Gawer &amp; Phillips_2013_OrgStudies_Institutional Work as Logics Shift.pdf</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>F2_P13_Gawer &amp; Phillips_2013_OrgStudies_Institutional Work as Logics Shift.png</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E9" t="n">
+        <v>14</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P13_Gawer &amp; Phillips_2013_OrgStudies_Institutional Work as Logics Shift.png</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.pdf</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>F1_P8_Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.png</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P8_Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.pdf</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>F2_P18_Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.png</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E11" t="n">
+        <v>19</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P18_Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>data map</t>
+        </is>
+      </c>
+      <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.pdf</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>F3_P22_Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.png</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E12" t="n">
+        <v>23</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-90</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F3_P22_Harvey &amp; Kou_2013_ASQ_Collective Engagement in Creative Tasks.png</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.pdf</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>F1_P8_Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.png</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P8_Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.pdf</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>F2_P10_Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.png</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>2</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E14" t="n">
+        <v>11</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P10_Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.pdf</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>F3_P11_Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.png</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>3</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E15" t="n">
+        <v>12</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F3_P11_Howard-Grenville, Metzger &amp; Meyer_2013_AMJ_Rekindling the Flame Process of Identity Resurrection.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>mixed statistical plot (more than 1 statistical plot type)</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Klingebiel &amp; De Meyer_2013_OrgSci_Becoming Aware of the Unknown.pdf</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>F1_P5_Klingebiel &amp; De Meyer_2013_OrgSci_Becoming Aware of the Unknown.png</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E16" t="n">
+        <v>6</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P5_Klingebiel &amp; De Meyer_2013_OrgSci_Becoming Aware of the Unknown.png</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Klingebiel &amp; De Meyer_2013_OrgSci_Becoming Aware of the Unknown.pdf</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>F2_P16_Klingebiel &amp; De Meyer_2013_OrgSci_Becoming Aware of the Unknown.png</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E17" t="n">
+        <v>17</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P16_Klingebiel &amp; De Meyer_2013_OrgSci_Becoming Aware of the Unknown.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Metiu &amp; Rothbard_2013_OrgSci_Task Bubbles, Artifacts Shared Emotion and Mutual focus of attention.pdf</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>F1_P7_Metiu &amp; Rothbard_2013_OrgSci_Task Bubbles, Artifacts Shared Emotion and Mutual focus of attention.png</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E18" t="n">
+        <v>8</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P7_Metiu &amp; Rothbard_2013_OrgSci_Task Bubbles, Artifacts Shared Emotion and Mutual focus of attention.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.pdf</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>F1_P7_Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P7_Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>table</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.pdf</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>F2_P8_Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E20" t="n">
+        <v>9</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P8_Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.pdf</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>F3_P13_Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F3_P13_Trefalt_2013_AMJ_Between You and Me Setting Work Non Work Boundaries in the Context of Workplace Relationships.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Vough et al._2013_AMJ_What Clients Don't Get About my Profession.pdf</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>F2_P10_Vough et al._2013_AMJ_What Clients Don't Get About my Profession.png</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E22" t="n">
+        <v>11</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P10_Vough et al._2013_AMJ_What Clients Don't Get About my Profession.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Vough et al._2013_AMJ_What Clients Don't Get About my Profession.pdf</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>F3_P22_Vough et al._2013_AMJ_What Clients Don't Get About my Profession.png</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>3</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E23" t="n">
+        <v>23</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F3_P22_Vough et al._2013_AMJ_What Clients Don't Get About my Profession.png</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>conceptual diagram</t>
+        </is>
+      </c>
+      <c r="I23" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Yagil &amp; Medler-Liraz_2013_AMJ_Moments of Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>F2_P16_Yagil &amp; Medler-Liraz_2013_AMJ_Moments of Truth.png</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E24" t="n">
+        <v>17</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P16_Yagil &amp; Medler-Liraz_2013_AMJ_Moments of Truth.png</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I24" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Zhang &amp; Spicer_2013_HR_Leader you first.pdf</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>F2_P10_Zhang &amp; Spicer_2013_HR_Leader you first.png</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E25" t="n">
+        <v>11</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F2_P10_Zhang &amp; Spicer_2013_HR_Leader you first.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I25" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2013_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2013_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1368,6 +1368,339 @@
         <v>1</v>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Cohen_2013_OrgSci_Assembling Jobs.pdf</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>F1_P18_Cohen_2013_OrgSci_Assembling Jobs.png</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E26" t="n">
+        <v>19</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P18_Cohen_2013_OrgSci_Assembling Jobs.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>process diagram</t>
+        </is>
+      </c>
+      <c r="I26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Kownatzki et al._2013_AMJ_Corporate Control and the Speed of Strategic business unit Decision Making.pdf</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>F1_P16_Kownatzki et al._2013_AMJ_Corporate Control and the Speed of Strategic business unit Decision Making.png</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E27" t="n">
+        <v>17</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P16_Kownatzki et al._2013_AMJ_Corporate Control and the Speed of Strategic business unit Decision Making.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I27" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Mazmanian_2013_AMJ_Avoiding the Trap of Constant Connectivity.pdf</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>F1_P20_Mazmanian_2013_AMJ_Avoiding the Trap of Constant Connectivity.png</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E28" t="n">
+        <v>21</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P20_Mazmanian_2013_AMJ_Avoiding the Trap of Constant Connectivity.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>none selected</t>
+        </is>
+      </c>
+      <c r="I28" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>McGill &amp; Milkman_2013_OrgSci_Looking Up and Looking Out.pdf</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>F1_P13_McGill &amp; Milkman_2013_OrgSci_Looking Up and Looking Out.png</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E29" t="n">
+        <v>14</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P13_McGill &amp; Milkman_2013_OrgSci_Looking Up and Looking Out.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>line graph</t>
+        </is>
+      </c>
+      <c r="I29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Neeley_2013_OrgSci_Language Matters.pdf</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>F1_P13_Neeley_2013_OrgSci_Language Matters.png</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P13_Neeley_2013_OrgSci_Language Matters.png</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Pache &amp; Santos_2013_AMJ_Inside the Hybrid Organization.pdf</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>F1_P11_Pache &amp; Santos_2013_AMJ_Inside the Hybrid Organization.png</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E31" t="n">
+        <v>12</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P11_Pache &amp; Santos_2013_AMJ_Inside the Hybrid Organization.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I31" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Vough et al._2013_AMJ_What Clients Don't Get About my Profession.pdf</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>F1_P9_Vough et al._2013_AMJ_What Clients Don't Get About my Profession.png</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E32" t="n">
+        <v>10</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P9_Vough et al._2013_AMJ_What Clients Don't Get About my Profession.png</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I32" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Yagil &amp; Medler-Liraz_2013_AMJ_Moments of Truth.pdf</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>F1_P6_Yagil &amp; Medler-Liraz_2013_AMJ_Moments of Truth.png</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E33" t="n">
+        <v>7</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P6_Yagil &amp; Medler-Liraz_2013_AMJ_Moments of Truth.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>data structure</t>
+        </is>
+      </c>
+      <c r="I33" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Zhang &amp; Spicer_2013_HR_Leader you first.pdf</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>F1_P8_Zhang &amp; Spicer_2013_HR_Leader you first.png</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>final_figures/2013/F1_P8_Zhang &amp; Spicer_2013_HR_Leader you first.png</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>photo</t>
+        </is>
+      </c>
+      <c r="I34" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/cropped_and_labeled_image_data/2013_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2013_cropped_and_labeled_figs.xlsx
@@ -1213,7 +1213,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>data collection, data analysis, data gathering diagrams</t>
         </is>
       </c>
       <c r="I21" t="b">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I27" t="b">
@@ -1472,7 +1472,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>none selected</t>
+          <t>conceptual diagram</t>
         </is>
       </c>
       <c r="I28" t="b">

--- a/cropped_and_labeled_image_data/2013_cropped_and_labeled_figs.xlsx
+++ b/cropped_and_labeled_image_data/2013_cropped_and_labeled_figs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>subcategory</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>is_viewed</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,9 +508,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -550,9 +542,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -587,9 +576,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -624,9 +610,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -661,9 +644,6 @@
           <t>timeline</t>
         </is>
       </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -698,9 +678,6 @@
           <t>venn diagram</t>
         </is>
       </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -735,9 +712,6 @@
           <t>venn diagram</t>
         </is>
       </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -772,9 +746,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -809,9 +780,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -846,9 +814,6 @@
           <t>data map</t>
         </is>
       </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -883,9 +848,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -920,9 +882,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -957,9 +916,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -991,11 +947,8 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>mixed statistical plot (more than 1 statistical plot type)</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
+          <t>mixed statistical plot (more than 1 statistical plot and type)</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -1028,11 +981,8 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1068,9 +1018,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1105,9 +1052,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1142,9 +1086,6 @@
           <t>table</t>
         </is>
       </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1179,9 +1120,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1213,11 +1151,8 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>data collection, data analysis, data gathering diagrams</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
+          <t>data collection, data analysis, data gathering diagram</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1253,9 +1188,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I22" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1290,9 +1222,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I23" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1327,9 +1256,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I24" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1361,11 +1287,8 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I25" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1401,9 +1324,6 @@
           <t>process diagram</t>
         </is>
       </c>
-      <c r="I26" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1438,9 +1358,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I27" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1475,9 +1392,6 @@
           <t>conceptual diagram</t>
         </is>
       </c>
-      <c r="I28" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1509,11 +1423,8 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>line graph</t>
-        </is>
-      </c>
-      <c r="I29" t="b">
-        <v>1</v>
+          <t>line graph(s)</t>
+        </is>
       </c>
     </row>
     <row r="30">
@@ -1546,11 +1457,8 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>data structure</t>
-        </is>
-      </c>
-      <c r="I30" t="b">
-        <v>1</v>
+          <t>data display</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1586,9 +1494,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I31" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1623,9 +1528,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I32" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1660,9 +1562,6 @@
           <t>data structure</t>
         </is>
       </c>
-      <c r="I33" t="b">
-        <v>1</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1694,11 +1593,8 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>photo</t>
-        </is>
-      </c>
-      <c r="I34" t="b">
-        <v>1</v>
+          <t>photo(s)</t>
+        </is>
       </c>
     </row>
   </sheetData>
